--- a/datos/demanda_recursos.xlsx
+++ b/datos/demanda_recursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E81BEC-B6D7-47BD-875A-8DC08D6B6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07000C0-36DA-4DB5-A3EA-0AEACA9A9CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>desinfectante (litros)</t>
   </si>
   <si>
-    <t>tijeras</t>
+    <t>kilos total por persona</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,21 +124,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -170,9 +155,7 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -181,31 +164,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,144 +609,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37492736-8D89-40FE-8661-9FA5C5B5BB97}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>30000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>30000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="13">
+        <f>C2/1200</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>2500</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D11" si="0">C3/1200</f>
+        <v>1.0416666666666667E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>4500</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="10">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4500</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>900</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>600</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>3000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>200</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>300</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>50</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.5</v>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/demanda_recursos.xlsx
+++ b/datos/demanda_recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07000C0-36DA-4DB5-A3EA-0AEACA9A9CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34246082-5B3D-4E8D-B127-4083ACCAF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
   </bookViews>
@@ -47,44 +47,44 @@
     <t>kilos total</t>
   </si>
   <si>
-    <t>litros agua</t>
-  </si>
-  <si>
-    <t>antinflamatorio (tabletas)</t>
-  </si>
-  <si>
-    <t>gasas</t>
-  </si>
-  <si>
-    <t>parches</t>
-  </si>
-  <si>
-    <t>alcohol (botellas de 250ml)</t>
-  </si>
-  <si>
-    <t>algodon (paquetes)</t>
-  </si>
-  <si>
-    <t>bolsas de hielo</t>
-  </si>
-  <si>
-    <t>guantes (pares)</t>
-  </si>
-  <si>
-    <t>unguento antibiótico (tubos)</t>
-  </si>
-  <si>
-    <t>desinfectante (litros)</t>
-  </si>
-  <si>
     <t>kilos total por persona</t>
+  </si>
+  <si>
+    <t>kg agua</t>
+  </si>
+  <si>
+    <t>kg donados antiinflamatorio</t>
+  </si>
+  <si>
+    <t>kg donados gasas</t>
+  </si>
+  <si>
+    <t>kg donados parches</t>
+  </si>
+  <si>
+    <t>kg donados alcohol</t>
+  </si>
+  <si>
+    <t>kg donados algodón</t>
+  </si>
+  <si>
+    <t>kg donados bolsas hielo</t>
+  </si>
+  <si>
+    <t>kg donados guantes</t>
+  </si>
+  <si>
+    <t>kg donados u. antibiotico</t>
+  </si>
+  <si>
+    <t>kg donados desinfectante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -138,11 +145,9 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -157,10 +162,66 @@
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,68 +229,14 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,43 +244,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +625,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,162 +634,162 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>30000</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>30000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>C2/1200</f>
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
         <v>2500</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1.25</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D11" si="0">C3/1200</f>
         <v>1.0416666666666667E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>4500</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>6.75</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>5.6249999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
         <v>4500</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
         <v>900</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>225</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>600</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>60</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
         <v>3000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1500</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
         <v>200</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <v>300</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
         <v>50</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>50</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>

--- a/datos/demanda_recursos.xlsx
+++ b/datos/demanda_recursos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34246082-5B3D-4E8D-B127-4083ACCAF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A4924-6740-4D3A-A52F-6A3B367667B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,9 +63,6 @@
     <t>kg donados alcohol</t>
   </si>
   <si>
-    <t>kg donados algodón</t>
-  </si>
-  <si>
     <t>kg donados bolsas hielo</t>
   </si>
   <si>
@@ -78,13 +73,16 @@
   </si>
   <si>
     <t>kg donados desinfectante</t>
+  </si>
+  <si>
+    <t>kg donados algodon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,12 +623,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="40.200000000000003" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.4" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -659,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -674,7 +672,7 @@
         <v>1.0416666666666667E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="27" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
@@ -689,7 +687,7 @@
         <v>5.6249999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="27" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -704,7 +702,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="27" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -719,9 +717,9 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="27" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -734,9 +732,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="27" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>3000</v>
@@ -749,9 +747,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="27" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>200</v>
@@ -764,9 +762,9 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="27" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>300</v>
@@ -779,9 +777,9 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>13</v>
+    <row r="11" spans="1:4" ht="27" thickBot="1">
+      <c r="A11" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>50</v>

--- a/datos/demanda_recursos.xlsx
+++ b/datos/demanda_recursos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A4924-6740-4D3A-A52F-6A3B367667B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{990A4924-6740-4D3A-A52F-6A3B367667B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAFBA50-EE8F-41BC-ACD3-46C29A0C2BA2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,6 +65,9 @@
     <t>kg donados alcohol</t>
   </si>
   <si>
+    <t>kg donados algodon</t>
+  </si>
+  <si>
     <t>kg donados bolsas hielo</t>
   </si>
   <si>
@@ -73,16 +78,13 @@
   </si>
   <si>
     <t>kg donados desinfectante</t>
-  </si>
-  <si>
-    <t>kg donados algodon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +104,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -256,7 +266,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -269,7 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -286,6 +294,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,178 +629,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37492736-8D89-40FE-8661-9FA5C5B5BB97}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.200000000000003" thickBot="1">
+    <row r="1" spans="1:23" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:23" ht="15">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>30000</v>
-      </c>
-      <c r="C2" s="11">
-        <v>30000</v>
-      </c>
-      <c r="D2" s="12">
-        <f>C2/1200</f>
+        <v>60000</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D2" s="10">
+        <f>C2/2400</f>
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:23" ht="35.25">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>2500</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D11" si="0">C3/1200</f>
+        <v>5000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D11" si="0">C3/2400</f>
         <v>1.0416666666666667E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:23" ht="23.25">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>4500</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6.75</v>
+        <v>9000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13.5</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>5.6249999999999998E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1">
-      <c r="A5" s="15" t="s">
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" ht="23.25">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>4500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" ht="23.25">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>900</v>
-      </c>
-      <c r="C6" s="7">
-        <v>225</v>
-      </c>
-      <c r="D6" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="6">
+        <v>450</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:23" ht="23.25">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>600</v>
-      </c>
-      <c r="C7" s="7">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="6">
+        <v>120</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>9</v>
+    <row r="8" spans="1:23" ht="23.25">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="5">
         <v>3000</v>
       </c>
-      <c r="C8" s="6">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>10</v>
+    <row r="9" spans="1:23" ht="23.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>200</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
+        <v>400</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" ht="23.25">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>300</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
+        <v>600</v>
+      </c>
+      <c r="C10" s="6">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1">
-      <c r="A11" s="16" t="s">
-        <v>12</v>
+    <row r="11" spans="1:23" ht="35.25">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6">
+        <v>100</v>
+      </c>
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:23" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/datos/demanda_recursos.xlsx
+++ b/datos/demanda_recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{990A4924-6740-4D3A-A52F-6A3B367667B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAFBA50-EE8F-41BC-ACD3-46C29A0C2BA2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{990A4924-6740-4D3A-A52F-6A3B367667B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749900CA-8766-4F94-B6D7-41C6D44467FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F94031F-8F5E-404B-B7F9-2068B2FBD843}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -157,53 +169,10 @@
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,28 +191,75 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -252,49 +268,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37492736-8D89-40FE-8661-9FA5C5B5BB97}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I5" sqref="I5:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -641,171 +656,162 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>60000</v>
       </c>
       <c r="C2" s="9">
         <v>60000</v>
       </c>
       <c r="D2" s="10">
-        <f>C2/2400</f>
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="35.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>5000</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>2.5</v>
       </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D11" si="0">C3/2400</f>
-        <v>1.0416666666666667E-3</v>
+      <c r="D3" s="13">
+        <v>1.0416666670000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="23.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <v>9000</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="12">
         <v>13.5</v>
       </c>
-      <c r="D4" s="10">
-        <f t="shared" si="0"/>
+      <c r="D4" s="13">
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:23" ht="23.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <v>9000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>18</v>
       </c>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
+      <c r="D5" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="W5" s="15"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="23.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>1800</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>450</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" si="0"/>
+      <c r="D6" s="13">
         <v>0.1875</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:23" ht="23.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>1200</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>120</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
+      <c r="D7" s="13">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="23.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>6000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>3000</v>
       </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
+      <c r="D8" s="13">
         <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
         <v>400</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="12">
         <v>6</v>
       </c>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
+      <c r="D9" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="23.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <v>600</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="12">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
+      <c r="D10" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="35.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>100</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="12">
         <v>100</v>
       </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+      <c r="D11" s="13">
+        <v>4.1666666669999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15"/>
+    <row r="13" spans="1:23" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
